--- a/hvac-calcs.xlsx
+++ b/hvac-calcs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karnespro16/code/hvac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F626DC9-301A-FF4B-BFDE-85416B0A95F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18335533-12A8-0343-82F5-4F1B611C1FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28200" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28200" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor Plans" sheetId="8" r:id="rId1"/>
-    <sheet name="Diagrams" sheetId="6" r:id="rId2"/>
-    <sheet name="Blocks" sheetId="1" r:id="rId3"/>
-    <sheet name="Rooms" sheetId="2" r:id="rId4"/>
-    <sheet name="Attic Ducts" sheetId="5" r:id="rId5"/>
+    <sheet name="HVAC Drawings" sheetId="6" r:id="rId2"/>
+    <sheet name="Loads" sheetId="9" r:id="rId3"/>
+    <sheet name="Blocks" sheetId="1" r:id="rId4"/>
+    <sheet name="Rooms" sheetId="2" r:id="rId5"/>
+    <sheet name="Attic Ducts" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,24 +319,12 @@
     <t>Stages</t>
   </si>
   <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>75K</t>
-  </si>
-  <si>
     <t>Heating Capacity</t>
   </si>
   <si>
     <t>Cooling Capacity</t>
   </si>
   <si>
-    <t>48K</t>
-  </si>
-  <si>
-    <t>42K</t>
-  </si>
-  <si>
     <t>Reference Model</t>
   </si>
   <si>
@@ -421,6 +410,18 @@
   </si>
   <si>
     <t>R802V</t>
+  </si>
+  <si>
+    <t>See Reports</t>
+  </si>
+  <si>
+    <t>Attic</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Basement</t>
   </si>
 </sst>
 </file>
@@ -1074,16 +1075,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1113,7 +1114,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="838200" y="203200"/>
+          <a:off x="800100" y="825500"/>
           <a:ext cx="17868900" cy="8890000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1146,25 +1147,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>136912</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4492AC7-0E15-5571-FE1D-BC9E8B2CBE0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB4B1ED-A7C8-064E-94B5-A14CEBE285AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="215900"/>
+          <a:ext cx="7823200" cy="6664712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>716615</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFEAAD0-9E13-0149-AC0F-66F28C65A098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,51 +1230,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="9321800"/>
-          <a:ext cx="7823200" cy="6664712"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673099</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>564214</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E369A23A-B32D-87E8-B609-306F89F53636}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8928099" y="9207500"/>
+          <a:off x="9080500" y="177800"/>
           <a:ext cx="9797115" cy="4635500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1576,14 +1582,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="U76" sqref="U76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -1591,11 +1613,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A478C8-0C0C-3447-A63E-AE3E632E471A}">
+  <dimension ref="B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>83</v>
@@ -1640,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L1" t="s">
         <v>84</v>
@@ -1659,14 +1702,14 @@
       <c r="C2">
         <v>80199.899999999994</v>
       </c>
-      <c r="D2" t="s">
-        <v>87</v>
+      <c r="D2">
+        <v>100000</v>
       </c>
       <c r="E2">
         <v>0.8</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -1677,14 +1720,14 @@
       <c r="I2">
         <v>44761</v>
       </c>
-      <c r="J2" t="s">
-        <v>91</v>
+      <c r="J2">
+        <v>48000</v>
       </c>
       <c r="K2">
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1697,15 +1740,15 @@
       <c r="C3">
         <v>51635</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
+      <c r="D3">
+        <v>75000</v>
       </c>
       <c r="E3">
         <f>0.8</f>
         <v>0.8</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>85</v>
@@ -1716,14 +1759,14 @@
       <c r="I3">
         <v>39104.9</v>
       </c>
-      <c r="J3" t="s">
-        <v>92</v>
+      <c r="J3">
+        <v>42000</v>
       </c>
       <c r="K3">
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1736,29 +1779,37 @@
       <c r="C4">
         <v>131834.9</v>
       </c>
+      <c r="D4">
+        <f>SUM(D2:D3)</f>
+        <v>175000</v>
+      </c>
       <c r="H4">
         <v>3000</v>
       </c>
       <c r="I4">
         <v>83865.899999999994</v>
       </c>
+      <c r="J4">
+        <f>SUM(J2:J3)</f>
+        <v>90000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -2851,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O79"/>
   <sheetViews>
@@ -2951,10 +3002,10 @@
         <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2989,10 +3040,10 @@
         <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3027,15 +3078,15 @@
         <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -3065,15 +3116,15 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -3091,7 +3142,7 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7">
         <v>500</v>
@@ -3103,10 +3154,10 @@
         <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3129,7 +3180,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>591</v>
@@ -3141,10 +3192,10 @@
         <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3167,7 +3218,7 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <v>591</v>
@@ -3179,10 +3230,10 @@
         <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3205,7 +3256,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>546</v>
@@ -3217,15 +3268,15 @@
         <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -3243,7 +3294,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H11">
         <v>546</v>
@@ -3255,15 +3306,15 @@
         <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -3281,7 +3332,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>546</v>
@@ -3293,10 +3344,10 @@
         <v>59</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3319,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H13">
         <v>486</v>
@@ -3331,15 +3382,15 @@
         <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -3357,7 +3408,7 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H14">
         <v>587</v>
@@ -3369,15 +3420,15 @@
         <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -3407,10 +3458,10 @@
         <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -3426,7 +3477,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
@@ -3447,13 +3498,13 @@
         <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s">
         <v>49</v>
@@ -3466,7 +3517,7 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>953</v>
@@ -3475,28 +3526,28 @@
         <v>0.09</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G19">
         <v>715</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
         <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -3504,7 +3555,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>679</v>
@@ -3513,28 +3564,28 @@
         <v>0.09</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20">
         <v>510</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="34" x14ac:dyDescent="0.2">
@@ -3569,7 +3620,7 @@
         <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s">
         <v>49</v>
@@ -3577,7 +3628,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>764</v>
@@ -3586,7 +3637,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -3598,21 +3649,21 @@
         <v>374</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C25">
         <v>868</v>
@@ -3621,7 +3672,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -3633,16 +3684,16 @@
         <v>425</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
